--- a/docs/negative_investment_issues.xlsx
+++ b/docs/negative_investment_issues.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="50">
   <si>
     <t>BAER_901</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>lightweight :bud"; leaving for now</t>
+  </si>
+  <si>
+    <t>have decreased sizes of part at first census, but this has no effect. Wondering what I'm doing wrong.</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +549,9 @@
       <c r="I2">
         <v>-4073.1092256157899</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -575,6 +581,9 @@
       <c r="I3">
         <v>-2243.8122697867798</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -604,6 +613,9 @@
       <c r="I4">
         <v>-522.26116857217096</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -633,6 +645,9 @@
       <c r="I5">
         <v>-317.87860041786001</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -662,6 +677,9 @@
       <c r="I6">
         <v>-25886.3158534861</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -723,6 +741,9 @@
       <c r="I8">
         <v>-6.8576693925393499</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -752,6 +773,9 @@
       <c r="I9">
         <v>-163.786201591121</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -813,7 +837,7 @@
       <c r="I11">
         <v>-5.02619124799517</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -845,7 +869,7 @@
       <c r="I12">
         <v>-7.1386911255695003</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -909,7 +933,7 @@
       <c r="I14">
         <v>-1.53659930400369</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -941,7 +965,7 @@
       <c r="I15">
         <v>-3.4433568397826102</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -973,7 +997,7 @@
       <c r="I16">
         <v>-0.72491722942791803</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1005,7 +1029,7 @@
       <c r="I17">
         <v>-0.51814507491112405</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1037,7 +1061,7 @@
       <c r="I18">
         <v>-0.72345422909258805</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1069,7 +1093,7 @@
       <c r="I19">
         <v>-0.43407253745555302</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1101,7 +1125,7 @@
       <c r="I20">
         <v>-1.5938169163703499</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1133,7 +1157,7 @@
       <c r="I21">
         <v>-1.4344352247333101</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1165,7 +1189,7 @@
       <c r="I22">
         <v>-0.55783592072962196</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1197,7 +1221,7 @@
       <c r="I23">
         <v>-0.78191988169684801</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1229,7 +1253,7 @@
       <c r="I24">
         <v>-0.33510852072722103</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1261,7 +1285,7 @@
       <c r="I25">
         <v>-0.38510852072722201</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1293,7 +1317,7 @@
       <c r="I26">
         <v>-0.86206457599981201</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1325,7 +1349,7 @@
       <c r="I27">
         <v>-1.1723539646057299</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1357,7 +1381,7 @@
       <c r="I28">
         <v>-0.246811360969628</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1389,7 +1413,7 @@
       <c r="I29">
         <v>-0.84681136096962695</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
